--- a/biology/Médecine/Satyu_Yamaguti/Satyu_Yamaguti.xlsx
+++ b/biology/Médecine/Satyu_Yamaguti/Satyu_Yamaguti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Satyu Yamaguti (山口 左仲, Yamaguchi Sachū?, 21 avril 1894-11 mars 1976) était une parasitologue, entomologiste, et helminthologiste japonais. C'était en particulier un spécialiste des moustiques et helminthes tels que les digènes, monogènes, cestodes, acanthocéphales et nématodes. Il a aussi travaillé sur les crustacés parasites Copépodes et Branchioures. Satyu Yamaguti a écrit plus de 60 articles scientifiques[1] et, surtout, plusieurs énormes monographies qui sont toujours utilisées par des scientifiques du monde entier et ont été citées plus de 1 000 fois chacune[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Satyu Yamaguti (山口 左仲, Yamaguchi Sachū?, 21 avril 1894-11 mars 1976) était une parasitologue, entomologiste, et helminthologiste japonais. C'était en particulier un spécialiste des moustiques et helminthes tels que les digènes, monogènes, cestodes, acanthocéphales et nématodes. Il a aussi travaillé sur les crustacés parasites Copépodes et Branchioures. Satyu Yamaguti a écrit plus de 60 articles scientifiques et, surtout, plusieurs énormes monographies qui sont toujours utilisées par des scientifiques du monde entier et ont été citées plus de 1 000 fois chacune.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Éducation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Satyu Yamaguti est né dans la préfecture de Nagano, au Japon, le 21 avril 1894.
 Après un diplôme du Collège médical d'Okayama (1918), il a étudié la pathologie à l'université de Tokyo et la parasitologie à l'Institut für TropenKrankten à Hambourg, en Allemagne (1925-1926). Il a reçu son diplôme de médecin en 1926 à l'université de Tokyo et son doctorat en sciences à l'université de Kyoto en 1935. Il fut enseignant en parasitologie à l'université de Kyoto (1927-1943), parasitologue à l'Institut naval d'hygiène tropicale à Makassar (île Célèbes, maintenant appelée Sulawesi, en Indonésie) avec la Marine japonaise (1943-1944), consultant spécial du Malaria Survey Detachment de l'armée des États-Unis (1946-1950). Il devint professeur de parasitologie à l'école de médecine de l'université d'Okayama (1950), fut professeur visiteur à l'université d'Hawaï (1962-1966) et professeur de biologie à l'université Tulane (1968-1969).
@@ -544,7 +558,9 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Conseiller, Japanese Society of Parasitology, depuis 1927.
 Président, Japanese Society of Parasitology, 1938.
@@ -583,7 +599,9 @@
           <t>Publications importantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Studies on the helminth fauna of Japan Pt. 1-57, 1933-1961.
 Parasitic worms mainly from Celebes Pt. 1-11, 1952-1956.
@@ -606,7 +624,7 @@
 Digenetic Trematodes of Hawaiian Fishes, 1970 (monographie).
 Synopsis of Digenetic Trematodes of Vertebrates, 1971 (monographie).
 A Synoptical Review of Life Histories of Digenetic Trematodes of Vertebrates, 1975 (monographie).
-Plus de 60 articles variés sur les helminthes[1].</t>
+Plus de 60 articles variés sur les helminthes.</t>
         </is>
       </c>
     </row>
@@ -634,7 +652,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux taxons ont été nommés en l'honneur de Satyu Yamaguti. La plupart sont des parasites.
 Quelques exemples de genres:
@@ -671,9 +691,11 @@
           <t>Curiosité de nomenclature zoologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Satyu Yamaguti a créé ce qui est probablement le nom de genre valide le plus long, avec 28 lettres, de la nomenclature zoologique : Lagenivaginopseudobenedenia Yamaguti, 1966[3]. Ce nom désigne un genre de monogènes de la famille Capsalidae, dont les espèces sont parasites sur les branchies de poissons de profondeurs, les vivaneaux (Lutjanidae).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Satyu Yamaguti a créé ce qui est probablement le nom de genre valide le plus long, avec 28 lettres, de la nomenclature zoologique : Lagenivaginopseudobenedenia Yamaguti, 1966. Ce nom désigne un genre de monogènes de la famille Capsalidae, dont les espèces sont parasites sur les branchies de poissons de profondeurs, les vivaneaux (Lutjanidae).
 </t>
         </is>
       </c>
@@ -702,7 +724,9 @@
           <t>Notices nécrologiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Guillermina R. Caballero (1976), Satyu Yamaguti (1894-1976). Anales del Instituto de Biologia, Universidad Nacional Autonoma de México, 47 (2), 211-212 (daté 1976, publié 1978)
 Anonyme (1976), Necrologia, Curriculum Vitae of Dr. Satyu Yamaguti. Revista Ibérica de Parasitologia, 36(1-2), 159-161
